--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1158,19 +1158,19 @@
     <t>*(00315)当代中国政治制度 2019年版</t>
   </si>
   <si>
+    <t>*(00277)行政管理学 2005年版</t>
+  </si>
+  <si>
+    <t>*(00034)社会学概论 2012年版</t>
+  </si>
+  <si>
+    <t>*(03708)中国近现代史纲要  2018年版</t>
+  </si>
+  <si>
+    <t>*(03709)马克思主义基本原理概论  2018年版</t>
+  </si>
+  <si>
     <t>*(01848)公务员制度 2018年版</t>
-  </si>
-  <si>
-    <t>*(03708)中国近现代史纲要  2018年版</t>
-  </si>
-  <si>
-    <t>*(03709)马克思主义基本原理概论  2018年版</t>
-  </si>
-  <si>
-    <t>*(00277)行政管理学 2005年版</t>
-  </si>
-  <si>
-    <t>*(00034)社会学概论 2012年版</t>
   </si>
   <si>
     <t>社会学概论</t>
@@ -1356,10 +1356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1409,9 +1409,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1423,48 +1454,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1479,20 +1478,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,22 +1500,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1545,10 +1523,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1573,31 +1573,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,67 +1603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,6 +1621,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1699,49 +1663,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,6 +1694,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,52 +2261,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2329,17 +2288,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2358,16 +2308,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2376,137 +2376,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2589,10 +2589,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3113,19 +3116,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="78"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="77"/>
+      <c r="A4" s="78"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3274,200 +3277,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="93" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="98"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="99"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="98"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="98"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="99"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="98"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="98"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="99"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="98"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="99"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="103"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="98"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="102"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="103"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="98"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3491,10 +3494,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
@@ -3502,22 +3505,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
       <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
@@ -3525,50 +3528,50 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
       <c r="C10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="105" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
@@ -3576,46 +3579,46 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="77" t="s">
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="78" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="77" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="78" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="106" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="78" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="77" t="s">
+      <c r="A17" s="105"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="78" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3643,304 +3646,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="105"/>
-    <col min="3" max="3" width="30.5" style="105" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="105"/>
+    <col min="1" max="2" width="9" style="106"/>
+    <col min="3" max="3" width="30.5" style="106" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="106"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="39" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="105" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="39" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="38"/>
-      <c r="D27" s="38" t="s">
+      <c r="A27" s="39"/>
+      <c r="D27" s="39" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="38"/>
-      <c r="D28" s="38" t="s">
+      <c r="A28" s="39"/>
+      <c r="D28" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="38"/>
-      <c r="D29" s="38" t="s">
+      <c r="A29" s="39"/>
+      <c r="D29" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38"/>
-      <c r="D30" s="38" t="s">
+      <c r="A30" s="39"/>
+      <c r="D30" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="38"/>
-      <c r="C31" s="105" t="s">
+      <c r="A31" s="39"/>
+      <c r="C31" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="105" t="s">
+      <c r="E31" s="106" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="105" t="s">
+      <c r="A32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="106" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="38"/>
-      <c r="D33" s="105" t="s">
+      <c r="A33" s="39"/>
+      <c r="D33" s="106" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="38"/>
-      <c r="D34" s="105" t="s">
+      <c r="A34" s="39"/>
+      <c r="D34" s="106" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="38"/>
-      <c r="C35" s="105" t="s">
+      <c r="A35" s="39"/>
+      <c r="C35" s="106" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="105" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="105" t="s">
+      <c r="C36" s="106" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="38"/>
-      <c r="C37" s="105" t="s">
+      <c r="A37" s="39"/>
+      <c r="C37" s="106" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3981,10 +3984,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3992,15 +3995,15 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -4008,29 +4011,29 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104" t="s">
+      <c r="A7" s="105"/>
+      <c r="B7" s="105" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4038,22 +4041,22 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="2" t="s">
         <v>100</v>
       </c>
@@ -4090,7 +4093,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4098,11 +4101,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="105" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4110,65 +4113,65 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4176,20 +4179,20 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104" t="s">
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="105" t="s">
         <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -4197,64 +4200,64 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104" t="s">
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105" t="s">
         <v>125</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -4262,23 +4265,23 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104" t="s">
+      <c r="A21" s="105"/>
+      <c r="B21" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="105" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -4286,28 +4289,28 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
       <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104" t="s">
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105" t="s">
         <v>134</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -4315,37 +4318,37 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104" t="s">
+      <c r="A28" s="105"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105" t="s">
         <v>139</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -4353,27 +4356,27 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104" t="s">
+      <c r="A31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105" t="s">
         <v>143</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -4381,35 +4384,35 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104" t="s">
+      <c r="A35" s="105"/>
+      <c r="B35" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="105" t="s">
         <v>149</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -4417,10 +4420,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104" t="s">
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105" t="s">
         <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -4428,18 +4431,18 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="104"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="104"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104" t="s">
+      <c r="A38" s="105"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105" t="s">
         <v>154</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -4447,25 +4450,25 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="104"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="104"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
       <c r="D40" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="104"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104" t="s">
+      <c r="A41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105" t="s">
         <v>158</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -4473,17 +4476,17 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="104"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="104"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104" t="s">
+      <c r="A43" s="105"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105" t="s">
         <v>161</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4491,25 +4494,25 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="104"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
       <c r="D44" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="104"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
       <c r="D45" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="104"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104" t="s">
+      <c r="A46" s="105"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105" t="s">
         <v>165</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -4517,25 +4520,25 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="104"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
       <c r="D47" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="104"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
       <c r="D48" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="104"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104" t="s">
+      <c r="A49" s="105"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105" t="s">
         <v>169</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -4543,16 +4546,16 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="104"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="104"/>
-      <c r="B51" s="104" t="s">
+      <c r="A51" s="105"/>
+      <c r="B51" s="105" t="s">
         <v>172</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -4560,9 +4563,9 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="104"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104" t="s">
+      <c r="A52" s="105"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105" t="s">
         <v>174</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -4570,38 +4573,38 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="104"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="104"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
       <c r="D54" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="104"/>
-      <c r="B55" s="104"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="104"/>
-      <c r="B56" s="104"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="104"/>
-      <c r="B57" s="104" t="s">
+      <c r="A57" s="105"/>
+      <c r="B57" s="105" t="s">
         <v>180</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -4609,22 +4612,22 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="104"/>
-      <c r="B58" s="104"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="104"/>
-      <c r="B59" s="104"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="104"/>
-      <c r="B60" s="104" t="s">
+      <c r="A60" s="105"/>
+      <c r="B60" s="105" t="s">
         <v>184</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -4632,15 +4635,15 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="104"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="104"/>
-      <c r="B62" s="104" t="s">
+      <c r="A62" s="105"/>
+      <c r="B62" s="105" t="s">
         <v>187</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -4648,9 +4651,9 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="104"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104" t="s">
+      <c r="A63" s="105"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105" t="s">
         <v>189</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -4658,41 +4661,41 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="104"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
+      <c r="A64" s="105"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
       <c r="D64" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="104"/>
-      <c r="B65" s="104"/>
-      <c r="C65" s="104"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="104"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
       <c r="D66" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="104"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
       <c r="D67" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="104"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="104"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
       <c r="D68" s="2" t="s">
         <v>195</v>
       </c>
@@ -4744,8 +4747,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="36" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="9" style="37" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="38" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="11" max="11" width="23.5" customWidth="1"/>
@@ -4753,472 +4756,472 @@
   </cols>
   <sheetData>
     <row r="2" ht="15" spans="2:12">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88">
+      <c r="J2" s="88"/>
+      <c r="K2" s="89">
         <v>43568</v>
       </c>
-      <c r="L2" s="89">
+      <c r="L2" s="90">
         <v>43569</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="40">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="42">
         <v>3709</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="45">
         <v>4</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="93" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="45">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="47">
         <v>3708</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="50">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94" t="s">
+      <c r="J4" s="94"/>
+      <c r="K4" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="45">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="51">
         <v>840</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="53">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="48" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="56">
+      <c r="A7" s="57">
         <v>4</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="51">
         <v>600</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="53">
         <v>12</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88">
+      <c r="J7" s="88"/>
+      <c r="K7" s="89">
         <v>43575</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="90">
         <v>43576</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="57"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="48" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="2"/>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="101" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="45">
+      <c r="A9" s="46">
         <v>5</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="47">
         <v>87</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="50">
         <v>6</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="96" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="45">
+      <c r="A10" s="46">
         <v>6</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="47">
         <v>8681</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="50">
         <v>3</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47">
         <v>8682</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="50">
         <v>3</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88">
+      <c r="J11" s="88"/>
+      <c r="K11" s="89">
         <v>43582</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L11" s="90">
         <v>43583</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="45">
+      <c r="A12" s="46">
         <v>7</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="47">
         <v>603</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="50">
         <v>4</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="100" t="s">
+      <c r="K12" s="102"/>
+      <c r="L12" s="101" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:12">
-      <c r="A13" s="58">
+      <c r="A13" s="59">
         <v>8</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="60">
         <v>604</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="63">
         <v>6</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="J13" s="96" t="s">
+      <c r="J13" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="40">
+      <c r="A14" s="41">
         <v>9</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="64">
         <v>830</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="45">
         <v>4</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="40" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45">
+      <c r="A15" s="46">
         <v>10</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="66">
         <v>831</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="50">
         <v>4</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="45">
+      <c r="A16" s="46">
         <v>11</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="66">
         <v>832</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="50">
         <v>4</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="88">
+      <c r="J16" s="88"/>
+      <c r="K16" s="89">
         <v>43757</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="90">
         <v>43758</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:12">
-      <c r="A17" s="45">
+      <c r="A17" s="46">
         <v>12</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="66">
         <v>9075</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="50">
         <v>4</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="J17" s="90" t="s">
+      <c r="J17" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="91" t="s">
+      <c r="K17" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="93" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="68">
+      <c r="A18" s="69">
         <v>13</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="64">
         <v>795</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="72">
         <v>10</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94" t="s">
+      <c r="J18" s="94"/>
+      <c r="K18" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="95" t="s">
+      <c r="L18" s="96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="72"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="J19" s="96" t="s">
+      <c r="E19" s="76"/>
+      <c r="J19" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="94" t="s">
+      <c r="K19" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="95" t="s">
+      <c r="L19" s="96" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="72">
+      <c r="A20" s="73">
         <v>14</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="66">
         <v>593</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="76">
         <v>8</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="78" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:12">
-      <c r="A21" s="78">
+      <c r="A21" s="79">
         <v>15</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="60">
         <v>594</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="82">
         <v>8</v>
       </c>
-      <c r="J21" s="87"/>
-      <c r="K21" s="88">
+      <c r="J21" s="88"/>
+      <c r="K21" s="89">
         <v>43764</v>
       </c>
-      <c r="L21" s="89">
+      <c r="L21" s="90">
         <v>43765</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:12">
-      <c r="A22" s="82">
+      <c r="A22" s="83">
         <v>16</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="84">
         <v>10233</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="100" t="s">
+      <c r="K22" s="102"/>
+      <c r="L22" s="101" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5226,11 +5229,11 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="J23" s="96" t="s">
+      <c r="J23" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="99"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24"/>
@@ -5241,11 +5244,11 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88">
+      <c r="J25" s="88"/>
+      <c r="K25" s="89">
         <v>43771</v>
       </c>
-      <c r="L25" s="89">
+      <c r="L25" s="90">
         <v>43772</v>
       </c>
     </row>
@@ -5253,25 +5256,25 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="103"/>
     </row>
     <row r="27" spans="10:12">
-      <c r="J27" s="90" t="s">
+      <c r="J27" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="92" t="s">
+      <c r="K27" s="104"/>
+      <c r="L27" s="93" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="10:12">
-      <c r="J28" s="93"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="95" t="s">
+      <c r="J28" s="94"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="96" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5610,7 +5613,7 @@
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -5637,7 +5640,7 @@
       <c r="D24" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="36" t="s">
         <v>273</v>
       </c>
       <c r="J24" t="s">
@@ -5682,8 +5685,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5837,7 +5840,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -5851,11 +5854,14 @@
       <c r="L8" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="29" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -5863,16 +5869,13 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="11"/>
-      <c r="K9" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="L9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="M9" s="31" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5935,16 +5938,16 @@
         <v>6</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="33" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5966,13 +5969,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="34" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6032,8 +6035,8 @@
         <v>4</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="639" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="13" r:id="rId1"/>
@@ -16,14 +16,16 @@
     <sheet name="英语" sheetId="3" r:id="rId7"/>
     <sheet name="计算机科学与技术080901" sheetId="14" r:id="rId8"/>
     <sheet name="行政管理120402" sheetId="15" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId10"/>
+    <sheet name="Aug" sheetId="16" r:id="rId10"/>
+    <sheet name="Sep" sheetId="17" r:id="rId11"/>
+    <sheet name="Oct" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="342">
   <si>
     <t>技术栈</t>
   </si>
@@ -1349,6 +1351,18 @@
   </si>
   <si>
     <t>论文必须由应考者本人独立完成，且观点明确、结构合理、论述有据、文字通顺。论文由主考院校组织审阅和答辩，论文成绩采用五级计分制评定，即优秀、良好、中等、及格和不及格。</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>MySql</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>GO</t>
   </si>
 </sst>
 </file>
@@ -1408,6 +1422,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1422,11 +1496,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1435,35 +1508,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1478,6 +1522,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1500,55 +1552,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1573,7 +1587,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,7 +1707,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,43 +1755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,114 +1768,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,11 +2275,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2287,24 +2307,38 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2324,37 +2358,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2364,10 +2378,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2376,139 +2390,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="31" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3116,19 +3131,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="78"/>
+      <c r="A2" s="79"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="78"/>
+      <c r="A3" s="79"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="78"/>
+      <c r="A4" s="79"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="78"/>
+      <c r="A5" s="79"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="78"/>
+      <c r="A6" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3139,121 +3154,522 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AC6"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="32" width="14.5" customWidth="1"/>
+    <col min="33" max="35" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29">
-      <c r="B2" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43712</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43713</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43714</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43715</v>
-      </c>
-      <c r="G2" s="1">
-        <v>43716</v>
-      </c>
-      <c r="H2" s="1">
-        <v>43717</v>
-      </c>
-      <c r="I2" s="1">
-        <v>43718</v>
-      </c>
-      <c r="J2" s="1">
-        <v>43719</v>
-      </c>
-      <c r="K2" s="1">
-        <v>43720</v>
-      </c>
-      <c r="L2" s="1">
-        <v>43721</v>
-      </c>
-      <c r="M2" s="1">
-        <v>43722</v>
-      </c>
-      <c r="N2" s="1">
-        <v>43723</v>
-      </c>
-      <c r="O2" s="1">
-        <v>43724</v>
-      </c>
-      <c r="P2" s="1">
-        <v>43725</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>43726</v>
-      </c>
-      <c r="R2" s="1">
-        <v>43727</v>
-      </c>
-      <c r="S2" s="1">
-        <v>43728</v>
-      </c>
-      <c r="T2" s="1">
-        <v>43729</v>
-      </c>
-      <c r="U2" s="1">
-        <v>43730</v>
-      </c>
-      <c r="V2" s="1">
-        <v>43731</v>
-      </c>
-      <c r="W2" s="1">
-        <v>43732</v>
-      </c>
-      <c r="X2" s="1">
-        <v>43733</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>43734</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>43735</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>43736</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>43737</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>43738</v>
+    <row r="1" spans="2:35">
+      <c r="B1" s="2">
+        <v>44044</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44045</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44046</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44047</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44048</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44049</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44050</v>
+      </c>
+      <c r="I1" s="2">
+        <v>44051</v>
+      </c>
+      <c r="J1" s="2">
+        <v>44052</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44053</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44054</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44055</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44056</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44057</v>
+      </c>
+      <c r="P1" s="2">
+        <v>44058</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>44059</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44060</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44061</v>
+      </c>
+      <c r="T1" s="1">
+        <v>44062</v>
+      </c>
+      <c r="U1" s="1">
+        <v>44063</v>
+      </c>
+      <c r="V1" s="1">
+        <v>44064</v>
+      </c>
+      <c r="W1" s="2">
+        <v>44065</v>
+      </c>
+      <c r="X1" s="2">
+        <v>44066</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>44067</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>44068</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>44069</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>44070</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>44071</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>44072</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>44073</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>44074</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>44075</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>44076</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H12:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="31" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:31">
+      <c r="B1" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44077</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44078</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44079</v>
+      </c>
+      <c r="G1" s="2">
+        <v>44080</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44081</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44082</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44083</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44084</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44085</v>
+      </c>
+      <c r="M1" s="2">
+        <v>44086</v>
+      </c>
+      <c r="N1" s="2">
+        <v>44087</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44088</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44089</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44090</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44091</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44092</v>
+      </c>
+      <c r="T1" s="2">
+        <v>44093</v>
+      </c>
+      <c r="U1" s="2">
+        <v>44094</v>
+      </c>
+      <c r="V1" s="1">
+        <v>44095</v>
+      </c>
+      <c r="W1" s="1">
+        <v>44096</v>
+      </c>
+      <c r="X1" s="1">
+        <v>44097</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>44098</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>44099</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>44100</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>44101</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>44102</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>44103</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="32" width="15.625" customWidth="1"/>
+    <col min="33" max="34" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:34">
+      <c r="B1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44106</v>
+      </c>
+      <c r="D1" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E1" s="2">
+        <v>44108</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44109</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44110</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44111</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44112</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44113</v>
+      </c>
+      <c r="K1" s="2">
+        <v>44114</v>
+      </c>
+      <c r="L1" s="2">
+        <v>44115</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44116</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44117</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44118</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44119</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44120</v>
+      </c>
+      <c r="R1" s="2">
+        <v>44121</v>
+      </c>
+      <c r="S1" s="2">
+        <v>44122</v>
+      </c>
+      <c r="T1" s="1">
+        <v>44123</v>
+      </c>
+      <c r="U1" s="1">
+        <v>44124</v>
+      </c>
+      <c r="V1" s="1">
+        <v>44125</v>
+      </c>
+      <c r="W1" s="1">
+        <v>44126</v>
+      </c>
+      <c r="X1" s="1">
+        <v>44127</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>44128</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>44129</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>44130</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>44131</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>44132</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>44133</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>44134</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>44135</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>44136</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3277,200 +3693,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="94" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="100"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="116"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="99"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="100"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="99"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="99"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="100"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="99"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="99"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="103"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="104"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="99"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="103"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="104"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="99"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3494,10 +3910,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="106" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
@@ -3505,22 +3921,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
       <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
@@ -3528,50 +3944,50 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
       <c r="C10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="106" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
@@ -3579,46 +3995,46 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="78" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="79" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="78" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="79" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="105"/>
-      <c r="B16" s="107" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="79" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="105"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="78" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="79" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3646,304 +4062,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="106"/>
-    <col min="3" max="3" width="30.5" style="106" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="106"/>
+    <col min="1" max="2" width="9" style="107"/>
+    <col min="3" max="3" width="30.5" style="107" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="39"/>
-      <c r="B26" s="106" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="40" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="39"/>
-      <c r="D27" s="39" t="s">
+      <c r="A27" s="40"/>
+      <c r="D27" s="40" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="39"/>
-      <c r="D28" s="39" t="s">
+      <c r="A28" s="40"/>
+      <c r="D28" s="40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="39"/>
-      <c r="D29" s="39" t="s">
+      <c r="A29" s="40"/>
+      <c r="D29" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="39"/>
-      <c r="D30" s="39" t="s">
+      <c r="A30" s="40"/>
+      <c r="D30" s="40" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="39"/>
-      <c r="C31" s="106" t="s">
+      <c r="A31" s="40"/>
+      <c r="C31" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="E31" s="107" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="106" t="s">
+      <c r="A32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="107" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="39"/>
-      <c r="D33" s="106" t="s">
+      <c r="A33" s="40"/>
+      <c r="D33" s="107" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="39"/>
-      <c r="D34" s="106" t="s">
+      <c r="A34" s="40"/>
+      <c r="D34" s="107" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="39"/>
-      <c r="C35" s="106" t="s">
+      <c r="A35" s="40"/>
+      <c r="C35" s="107" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="106" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="106" t="s">
+      <c r="C36" s="107" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="39"/>
-      <c r="C37" s="106" t="s">
+      <c r="A37" s="40"/>
+      <c r="C37" s="107" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3984,80 +4400,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4084,619 +4500,619 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="2" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="2" t="s">
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="2" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="2" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="2" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="2" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="2" t="s">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105" t="s">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="2" t="s">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105" t="s">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="2" t="s">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="2" t="s">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105" t="s">
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="2" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="2" t="s">
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="2" t="s">
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105" t="s">
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="2" t="s">
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="2" t="s">
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105" t="s">
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="2" t="s">
+      <c r="A32" s="106"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="2" t="s">
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="2" t="s">
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105" t="s">
+      <c r="A35" s="106"/>
+      <c r="B35" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105" t="s">
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="2" t="s">
+      <c r="A37" s="106"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105" t="s">
+      <c r="A38" s="106"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="2" t="s">
+      <c r="A39" s="106"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="2" t="s">
+      <c r="A40" s="106"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105" t="s">
+      <c r="A41" s="106"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="2" t="s">
+      <c r="A42" s="106"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="105"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105" t="s">
+      <c r="A43" s="106"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="2" t="s">
+      <c r="A44" s="106"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="2" t="s">
+      <c r="A45" s="106"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105" t="s">
+      <c r="A46" s="106"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="2" t="s">
+      <c r="A47" s="106"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="105"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="2" t="s">
+      <c r="A48" s="106"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105" t="s">
+      <c r="A49" s="106"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="2" t="s">
+      <c r="A50" s="106"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105" t="s">
+      <c r="A51" s="106"/>
+      <c r="B51" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="105"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105" t="s">
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="105"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="2" t="s">
+      <c r="A53" s="106"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="105"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="106"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="105"/>
-      <c r="B55" s="105"/>
-      <c r="C55" s="2" t="s">
+      <c r="A55" s="106"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="105"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="2" t="s">
+      <c r="A56" s="106"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="105"/>
-      <c r="B57" s="105" t="s">
+      <c r="A57" s="106"/>
+      <c r="B57" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="105"/>
-      <c r="B58" s="105"/>
-      <c r="C58" s="2" t="s">
+      <c r="A58" s="106"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="105"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="2" t="s">
+      <c r="A59" s="106"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="105"/>
-      <c r="B60" s="105" t="s">
+      <c r="A60" s="106"/>
+      <c r="B60" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="105"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="2" t="s">
+      <c r="A61" s="106"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="105"/>
-      <c r="B62" s="105" t="s">
+      <c r="A62" s="106"/>
+      <c r="B62" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="105"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105" t="s">
+      <c r="A63" s="106"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="105"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="2" t="s">
+      <c r="A64" s="106"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="105"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="2" t="s">
+      <c r="A65" s="106"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="105"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="2" t="s">
+      <c r="A66" s="106"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="105"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="2" t="s">
+      <c r="A67" s="106"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="105"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="105"/>
-      <c r="D68" s="2" t="s">
+      <c r="A68" s="106"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4746,9 +5162,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="37" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="39" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="11" max="11" width="23.5" customWidth="1"/>
@@ -4756,472 +5172,472 @@
   </cols>
   <sheetData>
     <row r="2" ht="15" spans="2:12">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89">
+      <c r="J2" s="89"/>
+      <c r="K2" s="90">
         <v>43568</v>
       </c>
-      <c r="L2" s="90">
+      <c r="L2" s="91">
         <v>43569</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="41">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="43">
         <v>3709</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="46">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="J3" s="91" t="s">
+      <c r="F3" s="3"/>
+      <c r="J3" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="93" t="s">
+      <c r="L3" s="94" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="46">
+      <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="48">
         <v>3708</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="51">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95" t="s">
+      <c r="J4" s="95"/>
+      <c r="K4" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="97" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="46">
+      <c r="A5" s="47">
         <v>3</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="52">
         <v>840</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="54">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="46"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="49" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="57">
+      <c r="A7" s="58">
         <v>4</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="52">
         <v>600</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="54">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="89">
+      <c r="F7" s="3"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90">
         <v>43575</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="91">
         <v>43576</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="58"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="49" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="2"/>
-      <c r="J8" s="77" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="100" t="s">
+      <c r="K8" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="101" t="s">
+      <c r="L8" s="102" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="46">
+      <c r="A9" s="47">
         <v>5</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="48">
         <v>87</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="51">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="J9" s="97" t="s">
+      <c r="F9" s="3"/>
+      <c r="J9" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96" t="s">
+      <c r="K9" s="96"/>
+      <c r="L9" s="97" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="46">
+      <c r="A10" s="47">
         <v>6</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="48">
         <v>8681</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="51">
         <v>3</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48">
         <v>8682</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="51">
         <v>3</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89">
+      <c r="F11" s="3"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90">
         <v>43582</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="91">
         <v>43583</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="46">
+      <c r="A12" s="47">
         <v>7</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="48">
         <v>603</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="51">
         <v>4</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="J12" s="77" t="s">
+      <c r="F12" s="3"/>
+      <c r="J12" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="101" t="s">
+      <c r="K12" s="103"/>
+      <c r="L12" s="102" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:12">
-      <c r="A13" s="59">
+      <c r="A13" s="60">
         <v>8</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="61">
         <v>604</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="64">
         <v>6</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="J13" s="97" t="s">
+      <c r="F13" s="3"/>
+      <c r="J13" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="41">
+      <c r="A14" s="42">
         <v>9</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="65">
         <v>830</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="46">
         <v>4</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="41" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="46">
+      <c r="A15" s="47">
         <v>10</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="67">
         <v>831</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="51">
         <v>4</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="46">
+      <c r="A16" s="47">
         <v>11</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="67">
         <v>832</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="51">
         <v>4</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89">
+      <c r="F16" s="3"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90">
         <v>43757</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="91">
         <v>43758</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:12">
-      <c r="A17" s="46">
+      <c r="A17" s="47">
         <v>12</v>
       </c>
-      <c r="B17" s="66">
+      <c r="B17" s="67">
         <v>9075</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="51">
         <v>4</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="J17" s="91" t="s">
+      <c r="F17" s="3"/>
+      <c r="J17" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="92" t="s">
+      <c r="K17" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="93" t="s">
+      <c r="L17" s="94" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="69">
+      <c r="A18" s="70">
         <v>13</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="65">
         <v>795</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="73">
         <v>10</v>
       </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95" t="s">
+      <c r="J18" s="95"/>
+      <c r="K18" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="96" t="s">
+      <c r="L18" s="97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="73"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="J19" s="97" t="s">
+      <c r="E19" s="77"/>
+      <c r="J19" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="95" t="s">
+      <c r="K19" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="96" t="s">
+      <c r="L19" s="97" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="73">
+      <c r="A20" s="74">
         <v>14</v>
       </c>
-      <c r="B20" s="66">
+      <c r="B20" s="67">
         <v>593</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="77">
         <v>8</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="79" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:12">
-      <c r="A21" s="79">
+      <c r="A21" s="80">
         <v>15</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="61">
         <v>594</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="83">
         <v>8</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89">
+      <c r="J21" s="89"/>
+      <c r="K21" s="90">
         <v>43764</v>
       </c>
-      <c r="L21" s="90">
+      <c r="L21" s="91">
         <v>43765</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:12">
-      <c r="A22" s="83">
+      <c r="A22" s="84">
         <v>16</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="85">
         <v>10233</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="102"/>
-      <c r="L22" s="101" t="s">
+      <c r="K22" s="103"/>
+      <c r="L22" s="102" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5229,11 +5645,11 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="J23" s="97" t="s">
+      <c r="J23" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24"/>
@@ -5244,11 +5660,11 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89">
+      <c r="J25" s="89"/>
+      <c r="K25" s="90">
         <v>43771</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="91">
         <v>43772</v>
       </c>
     </row>
@@ -5256,25 +5672,25 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="J26" s="77" t="s">
+      <c r="J26" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="102"/>
-      <c r="L26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
     </row>
     <row r="27" spans="10:12">
-      <c r="J27" s="91" t="s">
+      <c r="J27" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="K27" s="104"/>
-      <c r="L27" s="93" t="s">
+      <c r="K27" s="105"/>
+      <c r="L27" s="94" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="10:12">
-      <c r="J28" s="94"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="96" t="s">
+      <c r="J28" s="95"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="97" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5613,7 +6029,7 @@
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -5640,7 +6056,7 @@
       <c r="D24" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="37" t="s">
         <v>273</v>
       </c>
       <c r="J24" t="s">
@@ -5685,686 +6101,686 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="2" customWidth="1"/>
-    <col min="8" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="39.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="34.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.75" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="5.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
+    <col min="8" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="39.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="34.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.75" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>3709</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="G2" s="8"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>3708</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="G3" s="12"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
         <v>14</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
         <v>14</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="26"/>
+      <c r="G5" s="12"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
       <c r="K7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="K8" s="29" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12"/>
+      <c r="K8" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="30" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="K9" s="30" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="K9" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="32" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>4</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>6</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>315</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>6</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="K11" s="2" t="s">
+      <c r="G11" s="12"/>
+      <c r="K11" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>6</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>316</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>6</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="K12" s="32" t="s">
+      <c r="G12" s="12"/>
+      <c r="K12" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="34" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>7</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>1848</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="K13" s="30" t="s">
+      <c r="G13" s="12"/>
+      <c r="K13" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="35" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>8</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>318</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>4</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>9</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>319</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
         <v>4</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>10</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>320</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>4</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="G16" s="12"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>11</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>261</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="16">
+      <c r="A18" s="17">
         <v>12</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <v>12</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="18">
         <v>24</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18">
         <v>4</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="19" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="19">
+      <c r="A19" s="20">
         <v>13</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="14">
         <v>13</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="14">
         <v>40</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
         <v>6</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="L19" s="2" t="s">
+      <c r="G19" s="21"/>
+      <c r="L19" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="19">
+      <c r="A20" s="20">
         <v>14</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>14</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="14">
         <v>67</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
         <v>6</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="L20" s="2" t="s">
+      <c r="G20" s="21"/>
+      <c r="L20" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="19">
+      <c r="A21" s="20">
         <v>15</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="14">
         <v>15</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="14">
         <v>107</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14">
         <v>6</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="L21" s="2" t="s">
+      <c r="G21" s="21"/>
+      <c r="L21" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="19">
+      <c r="A22" s="20">
         <v>16</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>16</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>144</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
         <v>5</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="L22" s="2" t="s">
+      <c r="G22" s="21"/>
+      <c r="L22" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="21">
+      <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="14">
         <v>17</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>277</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
         <v>6</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="L23" s="2" t="s">
+      <c r="G23" s="21"/>
+      <c r="L23" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="21">
+      <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>18</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="10">
         <v>312</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <v>6</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="L24" s="2" t="s">
+      <c r="G24" s="21"/>
+      <c r="L24" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>19</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="14">
         <v>19</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="14">
         <v>321</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
         <v>5</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="L25" s="2" t="s">
+      <c r="G25" s="21"/>
+      <c r="L25" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="19">
+      <c r="A26" s="20">
         <v>20</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>20</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="14">
         <v>322</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
         <v>5</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="L26" s="2" t="s">
+      <c r="G26" s="21"/>
+      <c r="L26" s="3" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="19">
+      <c r="A27" s="20">
         <v>21</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="14">
         <v>21</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="14">
         <v>323</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14">
         <v>4</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="L27" s="2" t="s">
+      <c r="G27" s="21"/>
+      <c r="L27" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="22">
+      <c r="A28" s="23">
         <v>22</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="14">
         <v>22</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="24">
         <v>341</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24">
         <v>6</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="L28" s="2" t="s">
+      <c r="G28" s="25"/>
+      <c r="L28" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14">
         <v>10304</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="3" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30" spans="12:12">
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="26"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>337</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="639" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="639" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="13" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="348">
   <si>
     <t>技术栈</t>
   </si>
@@ -1353,6 +1353,24 @@
     <t>论文必须由应考者本人独立完成，且观点明确、结构合理、论述有据、文字通顺。论文由主考院校组织审阅和答辩，论文成绩采用五级计分制评定，即优秀、良好、中等、及格和不及格。</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
     <t>Spring</t>
   </si>
   <si>
@@ -1370,10 +1388,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1422,30 +1440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1454,7 +1448,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,29 +1477,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,6 +1509,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1551,18 +1540,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1587,7 +1605,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,7 +1671,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,67 +1767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,90 +1786,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,17 +2308,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2312,24 +2324,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2372,158 +2366,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="31" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3131,19 +3150,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="79"/>
+      <c r="A2" s="80"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3154,14 +3173,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3169,10 +3188,9 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="32" width="14.5" customWidth="1"/>
-    <col min="33" max="35" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35">
+    <row r="1" spans="2:32">
       <c r="B1" s="2">
         <v>44044</v>
       </c>
@@ -3266,64 +3284,76 @@
       <c r="AF1" s="1">
         <v>44074</v>
       </c>
-      <c r="AG1" s="1">
-        <v>44075</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>44076</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>341</v>
+    <row r="9" s="3" customFormat="1" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3471,7 +3501,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3481,17 +3511,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3679,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3659,17 +3689,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3693,200 +3723,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="100"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="101"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="101"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="101"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="100"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="101"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="100"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="101"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="100"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="101"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="100"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="101"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="104"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="100"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,10 +3940,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="107" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
@@ -3921,22 +3951,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
       <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
@@ -3944,50 +3974,50 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
       <c r="C10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
@@ -3995,46 +4025,46 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="79" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="80" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="79" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="80" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="106"/>
-      <c r="B16" s="108" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="80" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="79" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="80" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4062,304 +4092,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="107"/>
-    <col min="3" max="3" width="30.5" style="107" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="107"/>
+    <col min="1" max="2" width="9" style="108"/>
+    <col min="3" max="3" width="30.5" style="108" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="40"/>
-      <c r="B26" s="107" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="41" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="40"/>
-      <c r="D27" s="40" t="s">
+      <c r="A27" s="41"/>
+      <c r="D27" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="40"/>
-      <c r="D28" s="40" t="s">
+      <c r="A28" s="41"/>
+      <c r="D28" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="40"/>
-      <c r="D29" s="40" t="s">
+      <c r="A29" s="41"/>
+      <c r="D29" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="40"/>
-      <c r="D30" s="40" t="s">
+      <c r="A30" s="41"/>
+      <c r="D30" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="40"/>
-      <c r="C31" s="107" t="s">
+      <c r="A31" s="41"/>
+      <c r="C31" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E31" s="108" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="107" t="s">
+      <c r="A32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="108" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="40"/>
-      <c r="D33" s="107" t="s">
+      <c r="A33" s="41"/>
+      <c r="D33" s="108" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="40"/>
-      <c r="D34" s="107" t="s">
+      <c r="A34" s="41"/>
+      <c r="D34" s="108" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="40"/>
-      <c r="C35" s="107" t="s">
+      <c r="A35" s="41"/>
+      <c r="C35" s="108" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="107" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="108" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="40"/>
-      <c r="C37" s="107" t="s">
+      <c r="A37" s="41"/>
+      <c r="C37" s="108" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4400,80 +4430,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4500,619 +4530,619 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="28.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="28.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="3" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="3" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="3" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="3" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="3" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="3" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="3" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="3" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106" t="s">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="3" t="s">
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="106" t="s">
+      <c r="D21" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="3" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="3" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="3" t="s">
+      <c r="A25" s="107"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="3" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="3" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106" t="s">
+      <c r="A28" s="107"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="3" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="3" t="s">
+      <c r="A30" s="107"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="106"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="3" t="s">
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="3" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="3" t="s">
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="106"/>
-      <c r="B35" s="106" t="s">
+      <c r="A35" s="107"/>
+      <c r="B35" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C35" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="106"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106" t="s">
+      <c r="A36" s="107"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="106"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="3" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="106"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106" t="s">
+      <c r="A38" s="107"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="106"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="3" t="s">
+      <c r="A39" s="107"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="106"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="3" t="s">
+      <c r="A40" s="107"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="106"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="106"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="3" t="s">
+      <c r="A42" s="107"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="106"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106" t="s">
+      <c r="A43" s="107"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="106"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="3" t="s">
+      <c r="A44" s="107"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="106"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="3" t="s">
+      <c r="A45" s="107"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="106"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106" t="s">
+      <c r="A46" s="107"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="106"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="3" t="s">
+      <c r="A47" s="107"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="106"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="3" t="s">
+      <c r="A48" s="107"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="106"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106" t="s">
+      <c r="A49" s="107"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="106"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="3" t="s">
+      <c r="A50" s="107"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="106"/>
-      <c r="B51" s="106" t="s">
+      <c r="A51" s="107"/>
+      <c r="B51" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="106"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106" t="s">
+      <c r="A52" s="107"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="106"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="3" t="s">
+      <c r="A53" s="107"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="106"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="3" t="s">
+      <c r="A54" s="107"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="106"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="3" t="s">
+      <c r="A55" s="107"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="106"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="107"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="106"/>
-      <c r="B57" s="106" t="s">
+      <c r="A57" s="107"/>
+      <c r="B57" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="106"/>
-      <c r="B58" s="106"/>
-      <c r="C58" s="3" t="s">
+      <c r="A58" s="107"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="106"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="3" t="s">
+      <c r="A59" s="107"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="106"/>
-      <c r="B60" s="106" t="s">
+      <c r="A60" s="107"/>
+      <c r="B60" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="106"/>
-      <c r="B61" s="106"/>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="107"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="106"/>
-      <c r="B62" s="106" t="s">
+      <c r="A62" s="107"/>
+      <c r="B62" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="106"/>
-      <c r="B63" s="106"/>
-      <c r="C63" s="106" t="s">
+      <c r="A63" s="107"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="106"/>
-      <c r="B64" s="106"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="3" t="s">
+      <c r="A64" s="107"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="106"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="3" t="s">
+      <c r="A65" s="107"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="106"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="3" t="s">
+      <c r="A66" s="107"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="106"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="3" t="s">
+      <c r="A67" s="107"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="106"/>
-      <c r="B68" s="106"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="3" t="s">
+      <c r="A68" s="107"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5162,9 +5192,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="38" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="39" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="40" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="11" max="11" width="23.5" customWidth="1"/>
@@ -5172,472 +5202,472 @@
   </cols>
   <sheetData>
     <row r="2" ht="15" spans="2:12">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90">
+      <c r="J2" s="90"/>
+      <c r="K2" s="91">
         <v>43568</v>
       </c>
-      <c r="L2" s="91">
+      <c r="L2" s="92">
         <v>43569</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="44">
         <v>3709</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="47">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="J3" s="92" t="s">
+      <c r="F3" s="4"/>
+      <c r="J3" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="47">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="49">
         <v>3708</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="52">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96" t="s">
+      <c r="J4" s="96"/>
+      <c r="K4" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="97" t="s">
+      <c r="L4" s="98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="47">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="53">
         <v>840</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="55">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="47"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="50" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="58">
+      <c r="A7" s="59">
         <v>4</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="53">
         <v>600</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="55">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90">
+      <c r="F7" s="4"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="91">
         <v>43575</v>
       </c>
-      <c r="L7" s="91">
+      <c r="L7" s="92">
         <v>43576</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="59"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="50" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="3"/>
-      <c r="J8" s="78" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="4"/>
+      <c r="J8" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="101" t="s">
+      <c r="K8" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="103" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="47">
+      <c r="A9" s="48">
         <v>5</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="49">
         <v>87</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="52">
         <v>6</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="J9" s="98" t="s">
+      <c r="F9" s="4"/>
+      <c r="J9" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97" t="s">
+      <c r="K9" s="97"/>
+      <c r="L9" s="98" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="47">
+      <c r="A10" s="48">
         <v>6</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="49">
         <v>8681</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="52">
         <v>3</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49">
         <v>8682</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="52">
         <v>3</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90">
+      <c r="F11" s="4"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91">
         <v>43582</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L11" s="92">
         <v>43583</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="47">
+      <c r="A12" s="48">
         <v>7</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="49">
         <v>603</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="52">
         <v>4</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="J12" s="78" t="s">
+      <c r="F12" s="4"/>
+      <c r="J12" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="K12" s="103"/>
-      <c r="L12" s="102" t="s">
+      <c r="K12" s="104"/>
+      <c r="L12" s="103" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:12">
-      <c r="A13" s="60">
+      <c r="A13" s="61">
         <v>8</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="62">
         <v>604</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="65">
         <v>6</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="J13" s="98" t="s">
+      <c r="F13" s="4"/>
+      <c r="J13" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42">
+      <c r="A14" s="43">
         <v>9</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="66">
         <v>830</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="47">
         <v>4</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="42" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="47">
+      <c r="A15" s="48">
         <v>10</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="68">
         <v>831</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="52">
         <v>4</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="47">
+      <c r="A16" s="48">
         <v>11</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="68">
         <v>832</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="52">
         <v>4</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90">
+      <c r="F16" s="4"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91">
         <v>43757</v>
       </c>
-      <c r="L16" s="91">
+      <c r="L16" s="92">
         <v>43758</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:12">
-      <c r="A17" s="47">
+      <c r="A17" s="48">
         <v>12</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="68">
         <v>9075</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="52">
         <v>4</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="J17" s="92" t="s">
+      <c r="F17" s="4"/>
+      <c r="J17" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="93" t="s">
+      <c r="K17" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="94" t="s">
+      <c r="L17" s="95" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="70">
+      <c r="A18" s="71">
         <v>13</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="66">
         <v>795</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="74">
         <v>10</v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96" t="s">
+      <c r="J18" s="96"/>
+      <c r="K18" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="98" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="74"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="J19" s="98" t="s">
+      <c r="E19" s="78"/>
+      <c r="J19" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="96" t="s">
+      <c r="K19" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="97" t="s">
+      <c r="L19" s="98" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="74">
+      <c r="A20" s="75">
         <v>14</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="68">
         <v>593</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="78">
         <v>8</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="80" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:12">
-      <c r="A21" s="80">
+      <c r="A21" s="81">
         <v>15</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="62">
         <v>594</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="84">
         <v>8</v>
       </c>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90">
+      <c r="J21" s="90"/>
+      <c r="K21" s="91">
         <v>43764</v>
       </c>
-      <c r="L21" s="91">
+      <c r="L21" s="92">
         <v>43765</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:12">
-      <c r="A22" s="84">
+      <c r="A22" s="85">
         <v>16</v>
       </c>
-      <c r="B22" s="85">
+      <c r="B22" s="86">
         <v>10233</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="3" t="s">
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J22" s="78" t="s">
+      <c r="J22" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="103"/>
-      <c r="L22" s="102" t="s">
+      <c r="K22" s="104"/>
+      <c r="L22" s="103" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5645,11 +5675,11 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="J23" s="98" t="s">
+      <c r="J23" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="101"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24"/>
@@ -5660,11 +5690,11 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90">
+      <c r="J25" s="90"/>
+      <c r="K25" s="91">
         <v>43771</v>
       </c>
-      <c r="L25" s="91">
+      <c r="L25" s="92">
         <v>43772</v>
       </c>
     </row>
@@ -5672,25 +5702,25 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="J26" s="78" t="s">
+      <c r="J26" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
     </row>
     <row r="27" spans="10:12">
-      <c r="J27" s="92" t="s">
+      <c r="J27" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="K27" s="105"/>
-      <c r="L27" s="94" t="s">
+      <c r="K27" s="106"/>
+      <c r="L27" s="95" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="10:12">
-      <c r="J28" s="95"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="97" t="s">
+      <c r="J28" s="96"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="98" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6029,7 +6059,7 @@
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="38" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -6056,7 +6086,7 @@
       <c r="D24" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="38" t="s">
         <v>273</v>
       </c>
       <c r="J24" t="s">
@@ -6107,680 +6137,680 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
-    <col min="8" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="39.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="34.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="27.75" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="5.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="4" customWidth="1"/>
+    <col min="8" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="39.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="34.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="27.75" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>3709</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>4</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="G2" s="9"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>3708</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
         <v>2</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="G3" s="13"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <v>14</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="27"/>
+      <c r="G5" s="13"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
       <c r="K7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12"/>
-      <c r="K8" s="30" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="K8" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="31" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12"/>
-      <c r="K9" s="31" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="K9" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
         <v>6</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>315</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
         <v>6</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="K11" s="3" t="s">
+      <c r="G11" s="13"/>
+      <c r="K11" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>316</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
         <v>6</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="K12" s="33" t="s">
+      <c r="G12" s="13"/>
+      <c r="K12" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="35" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <v>1848</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
         <v>4</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="K13" s="31" t="s">
+      <c r="G13" s="13"/>
+      <c r="K13" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="M13" s="36" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>8</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>318</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
         <v>4</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>9</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <v>319</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
         <v>4</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>10</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <v>320</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
         <v>4</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
+      <c r="G16" s="13"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="11">
         <v>261</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
         <v>5</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17">
+      <c r="A18" s="18">
         <v>12</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>12</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="19">
         <v>24</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19">
         <v>4</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="20" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="20">
+      <c r="A19" s="21">
         <v>13</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="15">
         <v>13</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <v>40</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15">
         <v>6</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="L19" s="3" t="s">
+      <c r="G19" s="22"/>
+      <c r="L19" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="20">
+      <c r="A20" s="21">
         <v>14</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="15">
         <v>14</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <v>67</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15">
         <v>6</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="L20" s="3" t="s">
+      <c r="G20" s="22"/>
+      <c r="L20" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="20">
+      <c r="A21" s="21">
         <v>15</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="15">
         <v>15</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>107</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15">
         <v>6</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="L21" s="3" t="s">
+      <c r="G21" s="22"/>
+      <c r="L21" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="20">
+      <c r="A22" s="21">
         <v>16</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="15">
         <v>16</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <v>144</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15">
         <v>5</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="L22" s="3" t="s">
+      <c r="G22" s="22"/>
+      <c r="L22" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>17</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="15">
         <v>17</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11">
         <v>277</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11">
         <v>6</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="L23" s="3" t="s">
+      <c r="G23" s="22"/>
+      <c r="L23" s="4" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="22">
+      <c r="A24" s="23">
         <v>18</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="15">
         <v>18</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="11">
         <v>312</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11">
         <v>6</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="L24" s="3" t="s">
+      <c r="G24" s="22"/>
+      <c r="L24" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="20">
+      <c r="A25" s="21">
         <v>19</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="15">
         <v>19</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <v>321</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15">
         <v>5</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="L25" s="3" t="s">
+      <c r="G25" s="22"/>
+      <c r="L25" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="20">
+      <c r="A26" s="21">
         <v>20</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="15">
         <v>20</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="15">
         <v>322</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15">
         <v>5</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="L26" s="3" t="s">
+      <c r="G26" s="22"/>
+      <c r="L26" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="20">
+      <c r="A27" s="21">
         <v>21</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="15">
         <v>21</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="15">
         <v>323</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15">
         <v>4</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="L27" s="3" t="s">
+      <c r="G27" s="22"/>
+      <c r="L27" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="23">
+      <c r="A28" s="24">
         <v>22</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="15">
         <v>22</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="25">
         <v>341</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25">
         <v>6</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="L28" s="3" t="s">
+      <c r="G28" s="26"/>
+      <c r="L28" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15">
         <v>10304</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30" spans="12:12">
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="4" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="26"/>
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="27"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="27"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="27"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B37" s="26"/>
+      <c r="B37" s="27"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="27" t="s">
         <v>337</v>
       </c>
     </row>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="639" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="639" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="13" r:id="rId1"/>
@@ -1388,10 +1388,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1455,8 +1455,83 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,17 +1554,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1509,76 +1576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,7 +1605,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,31 +1773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,139 +1785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2293,61 +2293,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2385,156 +2335,206 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2629,11 +2629,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3175,7 +3175,7 @@
   <sheetPr/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -6131,8 +6131,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6384,16 +6384,16 @@
         <v>6</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="34" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       <c r="K13" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="35" t="s">
         <v>301</v>
       </c>
       <c r="M13" s="36" t="s">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C0746-EFF7-420B-8E42-7B0A1A0CBC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="639" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15540" tabRatio="639" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="13" r:id="rId1"/>
@@ -16,16 +22,15 @@
     <sheet name="英语" sheetId="3" r:id="rId7"/>
     <sheet name="计算机科学与技术080901" sheetId="14" r:id="rId8"/>
     <sheet name="行政管理120402" sheetId="15" r:id="rId9"/>
-    <sheet name="Aug" sheetId="16" r:id="rId10"/>
-    <sheet name="Sep" sheetId="17" r:id="rId11"/>
-    <sheet name="Oct" sheetId="18" r:id="rId12"/>
+    <sheet name="Sep" sheetId="17" r:id="rId10"/>
+    <sheet name="Oct" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="347">
   <si>
     <t>技术栈</t>
   </si>
@@ -1121,7 +1126,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1139,7 +1144,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1317,7 +1322,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -1335,7 +1340,7 @@
         <sz val="9"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8000</t>
     </r>
@@ -1353,24 +1358,6 @@
     <t>论文必须由应考者本人独立完成，且观点明确、结构合理、论述有据、文字通顺。论文由主考院校组织审阅和答辩，论文成绩采用五级计分制评定，即优秀、良好、中等、及格和不及格。</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>10,11</t>
-  </si>
-  <si>
-    <t>12,13</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
@@ -1381,19 +1368,82 @@
   </si>
   <si>
     <t>GO</t>
+  </si>
+  <si>
+    <t>9:00~11:30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:30~05:00</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11:30</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:30~5:00</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1405,7 +1455,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1417,7 +1467,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1440,151 +1490,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1603,194 +1530,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="49">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2292,257 +2033,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="31" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2573,9 +2071,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2591,15 +2086,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2607,9 +2096,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2684,30 +2170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2738,21 +2200,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2801,13 +2251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2819,62 +2263,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3132,257 +2615,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="80"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="80"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="80"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="80"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="80"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="63"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AF11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="32" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:32">
-      <c r="B1" s="2">
-        <v>44044</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44045</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44046</v>
-      </c>
-      <c r="E1" s="1">
-        <v>44047</v>
-      </c>
-      <c r="F1" s="1">
-        <v>44048</v>
-      </c>
-      <c r="G1" s="1">
-        <v>44049</v>
-      </c>
-      <c r="H1" s="1">
-        <v>44050</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44051</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44052</v>
-      </c>
-      <c r="K1" s="1">
-        <v>44053</v>
-      </c>
-      <c r="L1" s="1">
-        <v>44054</v>
-      </c>
-      <c r="M1" s="1">
-        <v>44055</v>
-      </c>
-      <c r="N1" s="1">
-        <v>44056</v>
-      </c>
-      <c r="O1" s="1">
-        <v>44057</v>
-      </c>
-      <c r="P1" s="2">
-        <v>44058</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>44059</v>
-      </c>
-      <c r="R1" s="1">
-        <v>44060</v>
-      </c>
-      <c r="S1" s="1">
-        <v>44061</v>
-      </c>
-      <c r="T1" s="1">
-        <v>44062</v>
-      </c>
-      <c r="U1" s="1">
-        <v>44063</v>
-      </c>
-      <c r="V1" s="1">
-        <v>44064</v>
-      </c>
-      <c r="W1" s="2">
-        <v>44065</v>
-      </c>
-      <c r="X1" s="2">
-        <v>44066</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>44067</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>44068</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>44069</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>44070</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>44071</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>44072</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>44073</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>44074</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AE11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H12:I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="31" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>44075</v>
       </c>
@@ -3474,76 +2761,77 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="H3" s="101" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="10" width="14.5" customWidth="1"/>
@@ -3551,17 +2839,17 @@
     <col min="33" max="34" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>44105</v>
       </c>
       <c r="C1" s="1">
         <v>44106</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>44107</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>44108</v>
       </c>
       <c r="F1" s="1">
@@ -3579,10 +2867,10 @@
       <c r="J1" s="1">
         <v>44113</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>44114</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>44115</v>
       </c>
       <c r="M1" s="1">
@@ -3652,419 +2940,429 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="R2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="R3" s="101" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="S4" s="102" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="S5" s="101" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="111" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="113" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="101"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="110" t="s">
+      <c r="C3" s="96"/>
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="116" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="115" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="101"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="110" t="s">
+      <c r="C6" s="96"/>
+      <c r="D6" s="84"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="115" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="101"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="111" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="84"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="115" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="101"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="111" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="84"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="116" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="115" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="101"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="110" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="84"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="114" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="101"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="118" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="84"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="110" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="88"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="119" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="114" t="s">
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="101"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="111" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="84"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="118" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="105"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="115" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="88"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="101"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="84"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="104" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
       <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
       <c r="C10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="80" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="80" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="104"/>
+      <c r="B16" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="80" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="104"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="63" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4076,320 +3374,336 @@
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B16:B17"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="108"/>
-    <col min="3" max="3" width="30.5" style="108" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="108"/>
+    <col min="1" max="2" width="9" style="90"/>
+    <col min="3" max="3" width="30.5" style="90" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="106"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="106"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="106"/>
+      <c r="B10" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="106"/>
+      <c r="B13" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="41"/>
-      <c r="B26" s="108" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="106"/>
+      <c r="B26" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="41"/>
-      <c r="D27" s="41" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="106"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="41"/>
-      <c r="D28" s="41" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="106"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="41"/>
-      <c r="D29" s="41" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="106"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="41"/>
-      <c r="D30" s="41" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="106"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="41"/>
-      <c r="C31" s="108" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="106"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="108" t="s">
+      <c r="E31" s="90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="108" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="106"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="90" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="41"/>
-      <c r="D33" s="108" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="106"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="90" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="41"/>
-      <c r="D34" s="108" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="106"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="41"/>
-      <c r="C35" s="108" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="106"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="108" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="106"/>
+      <c r="B36" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="41"/>
-      <c r="C37" s="108" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="106"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="90" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4401,109 +3715,108 @@
     <mergeCell ref="B13:B25"/>
     <mergeCell ref="B26:B35"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D32"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="104"/>
+      <c r="B7" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4514,635 +3827,634 @@
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="28.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="28.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="4" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="4" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="4" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="4" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="4" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="107"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="107"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="107"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="4" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="4" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="107"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="4" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="104"/>
+      <c r="B35" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="107"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="107"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="4" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="104"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="107"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="107"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="4" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="104"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="107"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="4" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="104"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="4" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="104"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="107"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="4" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="107"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="4" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="4" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="4" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="107"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="107"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="4" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="104"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="107"/>
-      <c r="B51" s="107" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="104"/>
+      <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="107"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="107"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="4" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="107"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="4" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="107"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="4" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="107"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="4" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="107"/>
-      <c r="B57" s="107" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="104"/>
+      <c r="B57" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="107"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="4" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="107"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="4" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="107"/>
-      <c r="B60" s="107" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="104"/>
+      <c r="B60" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="107"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="4" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="107" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="104"/>
+      <c r="B62" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="107"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="107" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="104"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="107"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="4" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="104"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="107"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="4" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="107"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="4" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="107"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="4" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="107"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="4" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5161,11 +4473,6 @@
     <mergeCell ref="C12:C20"/>
     <mergeCell ref="C21:C30"/>
     <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="C63:C68"/>
@@ -5175,552 +4482,556 @@
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="39" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="34" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="35" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="11" max="11" width="23.5" customWidth="1"/>
     <col min="12" max="12" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15" spans="2:12">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91">
+      <c r="J2" s="73"/>
+      <c r="K2" s="74">
         <v>43568</v>
       </c>
-      <c r="L2" s="92">
+      <c r="L2" s="75">
         <v>43569</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="43">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="39">
         <v>3709</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="42">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="J3" s="93" t="s">
+      <c r="F3" s="3"/>
+      <c r="J3" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="L3" s="78" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="48">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="44">
         <v>3708</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="47">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="81" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="48">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="115">
         <v>3</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="120">
         <v>840</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="111">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="48"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="51" t="s">
+      <c r="K5" s="83"/>
+      <c r="L5" s="84"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="115"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="59">
+      <c r="E6" s="112"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="116">
         <v>4</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="120">
         <v>600</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="111">
         <v>12</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="91">
+      <c r="F7" s="3"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74">
         <v>43575</v>
       </c>
-      <c r="L7" s="92">
+      <c r="L7" s="75">
         <v>43576</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="60"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="51" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="117"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="4"/>
-      <c r="J8" s="79" t="s">
+      <c r="E8" s="112"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="102" t="s">
+      <c r="K8" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="103" t="s">
+      <c r="L8" s="86" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="48">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="43">
         <v>5</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="44">
         <v>87</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="47">
         <v>6</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="J9" s="99" t="s">
+      <c r="F9" s="3"/>
+      <c r="J9" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98" t="s">
+      <c r="K9" s="80"/>
+      <c r="L9" s="81" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="48">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="115">
         <v>6</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="44">
         <v>8681</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="47">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="115"/>
+      <c r="B11" s="44">
         <v>8682</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="47">
         <v>3</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91">
+      <c r="F11" s="3"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74">
         <v>43582</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="75">
         <v>43583</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="48">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
         <v>7</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="44">
         <v>603</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="47">
         <v>4</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="J12" s="79" t="s">
+      <c r="F12" s="3"/>
+      <c r="J12" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="K12" s="104"/>
-      <c r="L12" s="103" t="s">
+      <c r="K12" s="87"/>
+      <c r="L12" s="86" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:12">
-      <c r="A13" s="61">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="48">
         <v>8</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="49">
         <v>604</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="52">
         <v>6</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="J13" s="99" t="s">
+      <c r="F13" s="3"/>
+      <c r="J13" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="43">
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
         <v>9</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="53">
         <v>830</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="42">
         <v>4</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="37" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="48">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="43">
         <v>10</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="55">
         <v>831</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="47">
         <v>4</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="48">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="43">
         <v>11</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="55">
         <v>832</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="47">
         <v>4</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91">
+      <c r="F16" s="3"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74">
         <v>43757</v>
       </c>
-      <c r="L16" s="92">
+      <c r="L16" s="75">
         <v>43758</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:12">
-      <c r="A17" s="48">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="43">
         <v>12</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="55">
         <v>9075</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="47">
         <v>4</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="J17" s="93" t="s">
+      <c r="F17" s="3"/>
+      <c r="J17" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="94" t="s">
+      <c r="K17" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="95" t="s">
+      <c r="L17" s="78" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="71">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="118">
         <v>13</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="122">
         <v>795</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="113">
         <v>10</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97" t="s">
+      <c r="J18" s="79"/>
+      <c r="K18" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="98" t="s">
+      <c r="L18" s="81" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="75"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="119"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="J19" s="99" t="s">
+      <c r="E19" s="114"/>
+      <c r="J19" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="97" t="s">
+      <c r="K19" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="98" t="s">
+      <c r="L19" s="81" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="75">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59">
         <v>14</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="55">
         <v>593</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="61">
         <v>8</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:12">
-      <c r="A21" s="81">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="64">
         <v>15</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="49">
         <v>594</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="67">
         <v>8</v>
       </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91">
+      <c r="J21" s="73"/>
+      <c r="K21" s="74">
         <v>43764</v>
       </c>
-      <c r="L21" s="92">
+      <c r="L21" s="75">
         <v>43765</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:12">
-      <c r="A22" s="85">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="68">
         <v>16</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="69">
         <v>10233</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="4" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="104"/>
-      <c r="L22" s="103" t="s">
+      <c r="K22" s="87"/>
+      <c r="L22" s="86" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="J23" s="99" t="s">
+      <c r="J23" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="101"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="K23" s="83"/>
+      <c r="L23" s="84"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91">
+      <c r="J25" s="73"/>
+      <c r="K25" s="74">
         <v>43771</v>
       </c>
-      <c r="L25" s="92">
+      <c r="L25" s="75">
         <v>43772</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="J26" s="79" t="s">
+      <c r="J26" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="105"/>
-    </row>
-    <row r="27" spans="10:12">
-      <c r="J27" s="93" t="s">
+      <c r="K26" s="87"/>
+      <c r="L26" s="88"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J27" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="95" t="s">
+      <c r="K27" s="89"/>
+      <c r="L27" s="78" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="10:12">
-      <c r="J28" s="96"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="98" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J28" s="79"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="81" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5740,27 +5051,26 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E18:E19"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>241</v>
       </c>
@@ -5780,7 +5090,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5797,7 +5107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5814,7 +5124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5831,7 +5141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5848,7 +5158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5868,7 +5178,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5885,7 +5195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5902,7 +5212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5922,7 +5232,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5942,7 +5252,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5959,7 +5269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5979,7 +5289,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5999,7 +5309,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6019,7 +5329,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6036,7 +5346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6050,16 +5360,16 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="33" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -6069,31 +5379,31 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>271</v>
       </c>
       <c r="D24" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="33" t="s">
         <v>273</v>
       </c>
       <c r="J24" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>275</v>
       </c>
@@ -6107,7 +5417,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="4:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>270</v>
       </c>
@@ -6115,715 +5425,714 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2018</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="4" customWidth="1"/>
-    <col min="8" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="39.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="34.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="27.75" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="5.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
+    <col min="8" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="39.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="34.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.75" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>3709</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>4</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="10">
+      <c r="G2" s="8"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>3708</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>2</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="14">
+      <c r="G3" s="12"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="127">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
         <v>14</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15">
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="127"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="128">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="128" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
+      <c r="E5" s="13"/>
+      <c r="F5" s="128">
         <v>14</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="28"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="13"/>
+      <c r="G5" s="129"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="127"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="127"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="129"/>
       <c r="K7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13"/>
-      <c r="K8" s="31" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="127"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129"/>
+      <c r="K8" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="26" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="K9" s="32" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="127"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="129"/>
+      <c r="K9" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="28" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>4</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>34</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>6</v>
       </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="10">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>315</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>6</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="K11" s="4" t="s">
+      <c r="G11" s="12"/>
+      <c r="K11" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>6</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>316</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>6</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="K12" s="31" t="s">
+      <c r="G12" s="12"/>
+      <c r="K12" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="10">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>7</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>1848</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="K13" s="32" t="s">
+      <c r="G13" s="12"/>
+      <c r="K13" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="10">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>8</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>318</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>4</v>
       </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="10">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>319</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
         <v>4</v>
       </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="10">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>10</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>320</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>4</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10">
+      <c r="G16" s="12"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>11</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>261</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="18">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>12</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>12</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>24</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
         <v>4</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="124" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="21">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
         <v>13</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>13</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>40</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
         <v>6</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="L19" s="4" t="s">
+      <c r="G19" s="125"/>
+      <c r="L19" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="21">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
         <v>14</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>14</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>67</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
         <v>6</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="L20" s="4" t="s">
+      <c r="G20" s="125"/>
+      <c r="L20" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
         <v>15</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>15</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>107</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13">
         <v>6</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="L21" s="4" t="s">
+      <c r="G21" s="125"/>
+      <c r="L21" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="21">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
         <v>16</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>16</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>144</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13">
         <v>5</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="L22" s="4" t="s">
+      <c r="G22" s="125"/>
+      <c r="L22" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
         <v>17</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>17</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>277</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
         <v>6</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="L23" s="4" t="s">
+      <c r="G23" s="125"/>
+      <c r="L23" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="23">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
         <v>18</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>18</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>312</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <v>6</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="L24" s="4" t="s">
+      <c r="G24" s="125"/>
+      <c r="L24" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="21">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <v>19</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>19</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>321</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
         <v>5</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="L25" s="4" t="s">
+      <c r="G25" s="125"/>
+      <c r="L25" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="21">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
         <v>20</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <v>20</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>322</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
         <v>5</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="L26" s="4" t="s">
+      <c r="G26" s="125"/>
+      <c r="L26" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="21">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
         <v>21</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="13">
         <v>21</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>323</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13">
         <v>4</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="L27" s="4" t="s">
+      <c r="G27" s="125"/>
+      <c r="L27" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="24">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
         <v>22</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="13">
         <v>22</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="21">
         <v>341</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21">
         <v>6</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="L28" s="4" t="s">
+      <c r="G28" s="126"/>
+      <c r="L28" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13">
         <v>10304</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="12:12">
-      <c r="L30" s="4" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="27"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="27" t="s">
+      <c r="B31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="27"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="27" t="s">
+      <c r="B32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="B33" s="27"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="27" t="s">
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="27" t="s">
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="B35" s="27"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="27" t="s">
+      <c r="B35" s="22"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="27"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="27" t="s">
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B37" s="27"/>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="27" t="s">
+      <c r="B37" s="22"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C38" s="22" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G18:G28"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G18:G28"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>